--- a/Documentación/PMOInformatica Plantilla de Sprint 1 Backlog .xlsx
+++ b/Documentación/PMOInformatica Plantilla de Sprint 1 Backlog .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tienda\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16260DF-CC00-4C55-B3EB-7B2FC4BBBC66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB45423-7506-4DF0-8CAE-4110E433B179}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,7 +745,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,16 +1993,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2014,6 +2004,16 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BD4:BE4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
